--- a/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.6004959517071143</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3499017336519047</v>
+        <v>0.3499017336519045</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1997335392412538</v>
+        <v>-0.1530840181594982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.208499043008238</v>
+        <v>-1.127262116431382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9314617089764939</v>
+        <v>-1.031191216142337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.017435512627141</v>
+        <v>-2.012746542217102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.420668673473913</v>
+        <v>-2.244501963504536</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.065684030086723</v>
+        <v>-1.012092534502331</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.831203704962555</v>
+        <v>-0.8046751636076629</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.405841130177272</v>
+        <v>-1.359687248840208</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.5963412385455403</v>
+        <v>-0.6884341901276871</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.340187456744541</v>
+        <v>2.193356060034115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4814439726929878</v>
+        <v>0.4819918599595726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.320545937701757</v>
+        <v>1.311316707522796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2881336183225753</v>
+        <v>0.2439295239146071</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1485919985564431</v>
+        <v>0.0348858782313614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.561508151035358</v>
+        <v>4.286350306811257</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.979216685982927</v>
+        <v>0.9156920326529301</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.02945013009320438</v>
+        <v>-0.05508660644309561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.242362534669024</v>
+        <v>2.062600979266914</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.7207221576668004</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4199560908479762</v>
+        <v>0.419956090847976</v>
       </c>
     </row>
     <row r="8">
@@ -780,27 +780,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6930224941387324</v>
+        <v>-0.700623444767868</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
-      <c r="F8" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.7552097551303538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7057518363241591</v>
+        <v>-0.7020888677282693</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7206517819618604</v>
+        <v>-0.7607534296541977</v>
       </c>
     </row>
     <row r="9">
@@ -813,23 +809,19 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
-      <c r="F9" s="6" t="n">
-        <v>1.596378488110491</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>1.270333558056949</v>
-      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>8.234174259307526</v>
+        <v>8.391520325026329</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.301260116988811</v>
+        <v>2.071143576787854</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5658606225383527</v>
+        <v>0.4726847675725601</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.568836824522704</v>
+        <v>4.254871816183469</v>
       </c>
     </row>
     <row r="10">
@@ -859,7 +851,7 @@
         <v>-0.01069407821753989</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3917298199008733</v>
+        <v>0.3917298199008736</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7106136354029808</v>
@@ -868,7 +860,7 @@
         <v>-0.1868540661781782</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.197923848007714</v>
+        <v>1.197923848007715</v>
       </c>
     </row>
     <row r="11">
@@ -879,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9822491577997446</v>
+        <v>-0.8539579431917889</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.248846172973174</v>
+        <v>-1.229082787970856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3308906873531828</v>
+        <v>0.2892303725756085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3102515797101188</v>
+        <v>0.1892288767774315</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.059528019955361</v>
+        <v>-1.044903767873295</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5770674636006556</v>
+        <v>-0.6805801439080563</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1721722209953416</v>
+        <v>-0.09752896624074409</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7788226486481112</v>
+        <v>-0.7967797317243813</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1354742950879462</v>
+        <v>0.1927712171710249</v>
       </c>
     </row>
     <row r="12">
@@ -914,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8121053522351552</v>
+        <v>0.839708682271071</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.446269853922156</v>
+        <v>0.4175052066303528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.972150404424818</v>
+        <v>4.900070457440068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.477427641604486</v>
+        <v>3.457536115825583</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9711189747252889</v>
+        <v>0.9121129121122481</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.873201586362699</v>
+        <v>1.668074664849102</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.620450579090414</v>
+        <v>1.65092643952726</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4246060835160529</v>
+        <v>0.428714594994985</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.686812083033198</v>
+        <v>2.716890725231979</v>
       </c>
     </row>
     <row r="13">
@@ -964,7 +956,7 @@
         <v>-0.01312455299484993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4807594143569627</v>
+        <v>0.4807594143569631</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9248004895907868</v>
@@ -984,31 +976,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8366345425228646</v>
+        <v>-0.8034420016806546</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09548514417820558</v>
+        <v>-0.1084038672987222</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05986177586981085</v>
+        <v>-0.07968464127113614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.80345087170371</v>
+        <v>-0.8496150283113439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5690747628323766</v>
+        <v>-0.6459821491493727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2028847161776603</v>
+        <v>-0.1559022188481975</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7344573947151598</v>
+        <v>-0.7655042874139234</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03328562496128122</v>
+        <v>0.08534645717256215</v>
       </c>
     </row>
     <row r="15">
@@ -1019,31 +1011,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.972638466906181</v>
+        <v>3.713679660182986</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.273340111895548</v>
+        <v>2.565967249444389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12.54996002018697</v>
+        <v>14.56012363300925</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10.53916192342339</v>
+        <v>10.99716460717906</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.062553446716477</v>
+        <v>3.095866397708577</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.966269910508977</v>
+        <v>5.012272346926427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.845742176764599</v>
+        <v>3.884415636020293</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.151144274701259</v>
+        <v>1.021095350481091</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.689547550729579</v>
+        <v>5.616750058393386</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1074,7 @@
         <v>-0.1167461673807921</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.5083663237214693</v>
+        <v>0.5083663237214695</v>
       </c>
     </row>
     <row r="17">
@@ -1093,31 +1085,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.080140236037023</v>
+        <v>-0.9861561909179229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.265144632881517</v>
+        <v>-1.249058193671808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9998262223741838</v>
+        <v>-0.8685582277118498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5643800472729067</v>
+        <v>-0.4478419343171171</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.350914727765363</v>
+        <v>-1.243207200707729</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3604928648062994</v>
+        <v>-0.4179575438794174</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4854581335562485</v>
+        <v>-0.3393809115524401</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8838681567394322</v>
+        <v>-0.9238490563310836</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3121450551312401</v>
+        <v>-0.2853650999593785</v>
       </c>
     </row>
     <row r="18">
@@ -1128,31 +1120,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.443723425658521</v>
+        <v>1.57601592417656</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.092585131385164</v>
+        <v>0.9696090236456093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.525355418981102</v>
+        <v>1.578446659466711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.943714195603501</v>
+        <v>1.913693081432193</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6753194841647201</v>
+        <v>0.6377674552940777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.791743543557922</v>
+        <v>1.835262416540679</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.381861816341635</v>
+        <v>1.415260296810654</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5750427496500143</v>
+        <v>0.6108987631323888</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.436124758915729</v>
+        <v>1.357877929403843</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1179,7 @@
         <v>-0.1322857828526005</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5760329321136886</v>
+        <v>0.5760329321136887</v>
       </c>
     </row>
     <row r="20">
@@ -1197,30 +1189,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-0.8011063513005846</v>
+      </c>
       <c r="D20" s="6" t="n">
-        <v>-0.847351551809452</v>
+        <v>-0.8918876064026923</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7504115842482053</v>
+        <v>-0.7614123277596285</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4317466556028115</v>
+        <v>-0.4135765710186404</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8450954962550786</v>
+        <v>-0.8420323132415483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.374462113867459</v>
+        <v>-0.4014900360792689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4077834588739948</v>
+        <v>-0.3350187010031169</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6673894531913352</v>
+        <v>-0.6822148366618889</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3000963649035097</v>
+        <v>-0.2731815422831389</v>
       </c>
     </row>
     <row r="21">
@@ -1230,30 +1224,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr"/>
+      <c r="C21" s="6" t="n">
+        <v>6.467858868954713</v>
+      </c>
       <c r="D21" s="6" t="n">
-        <v>4.642219283829534</v>
+        <v>3.512674552485983</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.593124788880419</v>
+        <v>4.859620576075503</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.380801142626401</v>
+        <v>4.553428523432889</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.788729722652258</v>
+        <v>1.622141205893714</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.42363029506521</v>
+        <v>4.390760790615522</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.765291874985692</v>
+        <v>2.677695592877367</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.272776111434489</v>
+        <v>1.323715480970769</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.048020575623622</v>
+        <v>2.718415927497968</v>
       </c>
     </row>
     <row r="22">
@@ -1274,7 +1270,7 @@
         <v>0.7481574158215704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.366652093887201</v>
+        <v>1.3666520938872</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.4062943502641185</v>
@@ -1303,31 +1299,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2635263266270866</v>
+        <v>-0.5353581005840806</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8361594946851915</v>
+        <v>-0.7145386344063942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1635923428134742</v>
+        <v>-0.3347189540934375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.322953534759164</v>
+        <v>-1.271891130431757</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.586827761763207</v>
+        <v>-2.631591557399352</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.100949138172161</v>
+        <v>-1.165260264564733</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.324749298579806</v>
+        <v>-0.3264971517541198</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.301239243148131</v>
+        <v>-1.232801220426996</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2204469687515174</v>
+        <v>-0.1004217406186342</v>
       </c>
     </row>
     <row r="24">
@@ -1338,31 +1334,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.067818129699553</v>
+        <v>3.016768173251106</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.286463913242776</v>
+        <v>2.290439698925314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.059768436676616</v>
+        <v>2.740482671465023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.244758644253626</v>
+        <v>2.226088623833923</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2404280167228555</v>
+        <v>0.2534260739610452</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.930160757717732</v>
+        <v>1.990985551404317</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.162446493720949</v>
+        <v>2.000378750150452</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8177704836802697</v>
+        <v>0.8380952895054914</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.04131950159857</v>
+        <v>1.943486812867532</v>
       </c>
     </row>
     <row r="25">
@@ -1379,7 +1375,7 @@
         <v>0.6286210056013323</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.148296060960824</v>
+        <v>1.148296060960823</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2035518135071392</v>
@@ -1408,31 +1404,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3279575692479099</v>
+        <v>-0.3995654615493678</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4880007777782903</v>
+        <v>-0.4471626032904117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1965347434754334</v>
+        <v>-0.2170275402324238</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4997551796384803</v>
+        <v>-0.463021919748799</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8599578137063282</v>
+        <v>-0.8483351165721611</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3769773949979188</v>
+        <v>-0.4045694914976175</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1937547965369947</v>
+        <v>-0.1742435078058134</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5824141710612616</v>
+        <v>-0.5817720002701748</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1184803199382508</v>
+        <v>-0.06144562832882988</v>
       </c>
     </row>
     <row r="27">
@@ -1443,31 +1439,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.06032417455715</v>
+        <v>5.191169446074785</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.740826671419556</v>
+        <v>4.498709497422347</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.348072193583212</v>
+        <v>4.985868537446814</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.799164872193927</v>
+        <v>2.108681867969786</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3702211952693682</v>
+        <v>0.4751224942116456</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.702145929647789</v>
+        <v>1.961586218151994</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.104970530362148</v>
+        <v>1.902607050069717</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8482560556372435</v>
+        <v>0.826993779070657</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.839195193548401</v>
+        <v>1.925504704638923</v>
       </c>
     </row>
     <row r="28">
@@ -1497,7 +1493,7 @@
         <v>-1.401071958677818</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.799370831992346</v>
+        <v>1.799370831992347</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3665041271306627</v>
@@ -1517,31 +1513,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.706198109787733</v>
+        <v>-3.60566260182779</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.203834059785682</v>
+        <v>-4.309275416966965</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.902252710401787</v>
+        <v>-1.972830035098762</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.624439613989494</v>
+        <v>-1.462056461234496</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.342200296490055</v>
+        <v>-3.211184863607298</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.3339056746035935</v>
+        <v>-0.1880540145593016</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.982520902833753</v>
+        <v>-1.92136110208923</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.180364057078259</v>
+        <v>-3.095771980862972</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4196021966072887</v>
+        <v>-0.3638327336367128</v>
       </c>
     </row>
     <row r="30">
@@ -1552,31 +1548,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8888171345587664</v>
+        <v>0.8260729981512857</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09829230566250327</v>
+        <v>0.01365252692265512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.688516140032341</v>
+        <v>2.786682501450538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.488872553868814</v>
+        <v>2.756976378972278</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.03243913648146848</v>
+        <v>-0.0244988054498319</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.444683513823812</v>
+        <v>3.548668518317263</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.0758411223128</v>
+        <v>1.25918585136331</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.5021308935367848</v>
+        <v>-0.510941250447465</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.697429049366165</v>
+        <v>2.574856496018734</v>
       </c>
     </row>
     <row r="31">
@@ -1602,7 +1598,7 @@
         <v>-0.6783033577757459</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8711324708660512</v>
+        <v>0.8711324708660515</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1373500867600957</v>
@@ -1622,31 +1618,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8232350672027519</v>
+        <v>-0.7792549463078629</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9196516383616089</v>
+        <v>-0.9272077774265191</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4114134140516903</v>
+        <v>-0.4352258608816861</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5611148495271013</v>
+        <v>-0.5548571169077732</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9433536771485733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.124347563610782</v>
+        <v>-0.1270536486539452</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5608457082270437</v>
+        <v>-0.5422317875616096</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8796615241718947</v>
+        <v>-0.8816745927687041</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1161045611674329</v>
+        <v>-0.1058605820345931</v>
       </c>
     </row>
     <row r="33">
@@ -1657,31 +1653,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5434788381198888</v>
+        <v>0.4768795219096684</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2418727388806206</v>
+        <v>0.08308072031556978</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.232181784756941</v>
+        <v>1.323473658668078</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.137852766397833</v>
+        <v>2.667350205541139</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2133350084292978</v>
+        <v>0.4906443595862764</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.005256545748098</v>
+        <v>3.284240528778377</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.565583350219329</v>
+        <v>0.7121296700637539</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1389862247856882</v>
+        <v>-0.1774207654805297</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.501146427621167</v>
+        <v>1.406746117879153</v>
       </c>
     </row>
     <row r="34">
@@ -1702,7 +1698,7 @@
         <v>-3.526234565439987</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.233137691905774</v>
+        <v>-1.233137691905773</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.645654815663183</v>
@@ -1720,7 +1716,7 @@
         <v>-1.649269819893961</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.058179559961663</v>
+        <v>1.058179559961664</v>
       </c>
     </row>
     <row r="35">
@@ -1731,31 +1727,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.650424564479807</v>
+        <v>-5.714203517484513</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.272808709391234</v>
+        <v>-6.149949639686338</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.60229047441581</v>
+        <v>-4.132967461856666</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3605510318671472</v>
+        <v>-0.4705662402361754</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.70499651169603</v>
+        <v>-1.655571726417888</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.026013404593236</v>
+        <v>1.004540586449642</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.228072005296018</v>
+        <v>-2.175662680428857</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.334623204941403</v>
+        <v>-3.297262379879756</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.5574541062922344</v>
+        <v>-0.7900003615424733</v>
       </c>
     </row>
     <row r="36">
@@ -1766,31 +1762,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.3325803874074566</v>
+        <v>0.3455970732052587</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.261185427879586</v>
+        <v>-1.01536725055278</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.337894602751676</v>
+        <v>1.250556648730665</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.137244527736985</v>
+        <v>4.233403165430717</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.835605377519801</v>
+        <v>1.842484258384157</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.997192136552503</v>
+        <v>5.007678553416603</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.473621461494516</v>
+        <v>1.506541520568391</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1803831887918115</v>
+        <v>-0.2352450186688999</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.695794588761713</v>
+        <v>2.739350911777965</v>
       </c>
     </row>
     <row r="37">
@@ -1807,7 +1803,7 @@
         <v>-0.7646070756971398</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2673860139030053</v>
+        <v>-0.2673860139030051</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>1.014792097380422</v>
@@ -1825,7 +1821,7 @@
         <v>-0.5500694904096881</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3529272677453614</v>
+        <v>0.3529272677453617</v>
       </c>
     </row>
     <row r="38">
@@ -1836,31 +1832,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8825654179775988</v>
+        <v>-0.8796710638901164</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9510985842533269</v>
+        <v>-0.9521578699796577</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6551775482578733</v>
+        <v>-0.652231869355327</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2978764637629452</v>
+        <v>-0.3009662103803995</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7665143738668856</v>
+        <v>-0.7167842853935652</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1963070265997294</v>
+        <v>0.06792942520107616</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.577447095701246</v>
+        <v>-0.5762886370158568</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.8111869242495847</v>
+        <v>-0.8156283691937232</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1592992991900866</v>
+        <v>-0.2010179473818411</v>
       </c>
     </row>
     <row r="39">
@@ -1871,31 +1867,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2233088528424168</v>
+        <v>0.3205205798632924</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2154479784233053</v>
+        <v>-0.1989848973457287</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.492826312322143</v>
+        <v>0.4653625231736024</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5.519524074272117</v>
+        <v>5.304973600379905</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.960508022819279</v>
+        <v>2.826451407698243</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>6.927502187829957</v>
+        <v>6.768781010871809</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6620547855544021</v>
+        <v>0.7175855180426198</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.04555873889344431</v>
+        <v>-0.04588922131861297</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.246307269484503</v>
+        <v>1.34547477230364</v>
       </c>
     </row>
     <row r="40">
@@ -1934,7 +1930,7 @@
         <v>-1.203802041719594</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.239656410031494</v>
+        <v>2.239656410031492</v>
       </c>
     </row>
     <row r="41">
@@ -1945,31 +1941,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.434803583680473</v>
+        <v>-1.689791214211346</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.101995665185362</v>
+        <v>-3.898427158392162</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.841595077010831</v>
+        <v>-2.051656350433917</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.563977938562521</v>
+        <v>-4.71797240646384</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.602231308723208</v>
+        <v>-4.514016091216673</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.3255565617193394</v>
+        <v>0.1522224677846503</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.463376185711618</v>
+        <v>-2.391624691665329</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.433563673280408</v>
+        <v>-3.389226912027557</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.1287480359039419</v>
+        <v>-0.1342973070575078</v>
       </c>
     </row>
     <row r="42">
@@ -1980,31 +1976,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.022166810991468</v>
+        <v>5.064924981906086</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.223801225592009</v>
+        <v>1.444392442533538</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.82178433448327</v>
+        <v>3.654905945664735</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.386962038207493</v>
+        <v>1.248222527417343</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.648899977885441</v>
+        <v>1.438384054276902</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.137055713264713</v>
+        <v>6.051817326994744</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.109340386203356</v>
+        <v>1.922045706309175</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.024316387753208</v>
+        <v>0.8745597262733572</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.319343295019986</v>
+        <v>4.427148549889316</v>
       </c>
     </row>
     <row r="43">
@@ -2039,7 +2035,7 @@
         <v>-0.328700427881083</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6115424253911029</v>
+        <v>0.6115424253911026</v>
       </c>
     </row>
     <row r="44">
@@ -2050,31 +2046,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4966016256852696</v>
+        <v>-0.472956975250632</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.9329075413356194</v>
+        <v>-0.8978085480708954</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4949030519374761</v>
+        <v>-0.5391237599497004</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7087565803688127</v>
+        <v>-0.733555640154982</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7285692790362129</v>
+        <v>-0.7547025559813582</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09590099091852916</v>
+        <v>-0.01401758312824056</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4912946353100367</v>
+        <v>-0.4938518154040169</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6850575924584206</v>
+        <v>-0.6866296110057081</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.03919485775479604</v>
+        <v>-0.07653295251055241</v>
       </c>
     </row>
     <row r="45">
@@ -2085,31 +2081,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.590977852095613</v>
+        <v>4.853432849199427</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.709683096945797</v>
+        <v>2.048343220006811</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.886738461809939</v>
+        <v>3.832022750100426</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6008175973217479</v>
+        <v>0.6271063295305707</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5892366592855851</v>
+        <v>0.6342062480868527</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.296674943441057</v>
+        <v>2.195512963816995</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9372660693161214</v>
+        <v>0.8119985837024271</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.54196394596925</v>
+        <v>0.3648169110166483</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.84059746819607</v>
+        <v>1.823289975418433</v>
       </c>
     </row>
     <row r="46">
@@ -2139,7 +2135,7 @@
         <v>-0.593532243017768</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.571762213672231</v>
+        <v>1.57176221367223</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.3375140030689432</v>
@@ -2159,31 +2155,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.4765025440357321</v>
+        <v>-0.4817827841259929</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.056673425951921</v>
+        <v>-1.099199656433419</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.2419736692082083</v>
+        <v>0.2381297645340701</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1816305185952086</v>
+        <v>-0.1320542594783256</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.197692591983375</v>
+        <v>-1.168616491047819</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.9303932081381189</v>
+        <v>0.886053950993462</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1371870450169951</v>
+        <v>-0.1854148260049639</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.9552204224252397</v>
+        <v>-0.9422789487742664</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.7599440150127458</v>
+        <v>0.8014221219909579</v>
       </c>
     </row>
     <row r="48">
@@ -2194,31 +2190,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7497818488737716</v>
+        <v>0.810567499961756</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.07246387222178372</v>
+        <v>0.08439416269470519</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.653760173962018</v>
+        <v>1.716718834431219</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.235987020700036</v>
+        <v>1.253642957056308</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.0285582313182852</v>
+        <v>-0.04717459289232304</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.174419627064028</v>
+        <v>2.287606553347768</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.795635297889119</v>
+        <v>0.7823525282394849</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1362685076381577</v>
+        <v>-0.1535965691640576</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.708044868366108</v>
+        <v>1.743379057132088</v>
       </c>
     </row>
     <row r="49">
@@ -2244,7 +2240,7 @@
         <v>-0.3580343309502114</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.9481284954693089</v>
+        <v>0.9481284954693084</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2104701161591244</v>
@@ -2264,31 +2260,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2746192258288391</v>
+        <v>-0.2652268974515355</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5789201929528356</v>
+        <v>-0.572062577487442</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.11954106841531</v>
+        <v>0.1132148501113103</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0985322935910989</v>
+        <v>-0.07000732925102793</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5878960045562956</v>
+        <v>-0.5886673467913278</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4516692455804637</v>
+        <v>0.4233040969343767</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.08006593536852691</v>
+        <v>-0.09285030442578647</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5216025426905698</v>
+        <v>-0.5242170743723937</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4197680603123648</v>
+        <v>0.4302047873490845</v>
       </c>
     </row>
     <row r="51">
@@ -2299,31 +2295,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.598247849501919</v>
+        <v>0.6413242232905922</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.08125335419605736</v>
+        <v>0.08389148665027592</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.337966115359523</v>
+        <v>1.421001099366693</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8905414995524754</v>
+        <v>0.9342571909300746</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.01336527468968083</v>
+        <v>-0.03259679734493327</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.637588290845625</v>
+        <v>1.72213194009841</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5565654443964506</v>
+        <v>0.5683272723797771</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.09809258294524946</v>
+        <v>-0.1108378135248572</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.253436879659351</v>
+        <v>1.237774236844872</v>
       </c>
     </row>
     <row r="52">
